--- a/Documents/Excel - Test2.xlsx
+++ b/Documents/Excel - Test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Github\Dissertation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003C9C1D-25DA-46CE-AED3-CDBB7D5BB97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01834D0E-ED90-41D9-9589-22EDCB4A5BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E0E3571F-FF3B-432F-B89D-2F0905038983}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Array of Sensors</t>
   </si>
@@ -177,13 +177,109 @@
   </si>
   <si>
     <t>https://prnt.sc/UCTW6peRxUWI</t>
+  </si>
+  <si>
+    <t>4x7</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/wfvm0ijXduGl</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/IqVsoGEwZ5q7</t>
+  </si>
+  <si>
+    <t>9x3</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/UGY0SzSsSwQ6</t>
+  </si>
+  <si>
+    <t>3x9</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/PNkT0clv-D19</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/7eBJWzyKeJO0</t>
+  </si>
+  <si>
+    <t>5x6</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/A5aOqRjUX1Oq</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/iudzR8Aggiz2</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/CD7V-Luec7UM</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/1_yfDdCQ6CLF</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/fT7R6nOTRIqP</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Activation3</t>
+  </si>
+  <si>
+    <t>Regularizer.l2</t>
+  </si>
+  <si>
+    <t>Hidden Layer 2</t>
+  </si>
+  <si>
+    <t>Hidden Layer 3</t>
+  </si>
+  <si>
+    <t>Hidden Layer 4</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/x66lwaZcSVBz</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/sZ_li1wKb3TG</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/MLU_6kZqdp_-</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/dhV1MmgaUU60</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/dMGRrR18YKUj</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/Jw4GKLJC_et8</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/LQEGoQ2rwlfE</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/ky5eqHWQ9nPq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +317,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +345,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -250,12 +366,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,8 +416,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -390,7 +560,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="10"/>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-5.2214568778812941E-2"/>
@@ -407,7 +577,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6078-4211-A309-936BE75E1A87}"/>
+                  <c16:uniqueId val="{00000000-E35A-40EE-91F4-BC5A84C7A47E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -470,10 +640,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$14</c:f>
+              <c:f>Planilha1!$B$8:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -490,9 +660,21 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -500,10 +682,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$G$8:$G$14</c:f>
+              <c:f>Planilha1!$G$8:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.33939999999999998</c:v>
                 </c:pt>
@@ -517,12 +699,24 @@
                   <c:v>0.26250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.2339</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.2354</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.25840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.26319999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1001,10 +1195,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$14</c:f>
+              <c:f>Planilha1!$B$8:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1021,9 +1215,21 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1031,10 +1237,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$I$8:$I$14</c:f>
+              <c:f>Planilha1!$I$8:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.85129999999999995</c:v>
                 </c:pt>
@@ -1048,12 +1254,24 @@
                   <c:v>0.52532999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.50749999999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.5494</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.63190000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1534,10 +1752,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$14</c:f>
+              <c:f>Planilha1!$B$8:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -1554,9 +1772,21 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1564,10 +1794,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$H$8:$H$14</c:f>
+              <c:f>Planilha1!$H$8:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.26329999999999998</c:v>
                 </c:pt>
@@ -1581,12 +1811,24 @@
                   <c:v>0.2092</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.18579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.19020000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.1928</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>0.21049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.2122</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,10 +2284,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$14</c:f>
+              <c:f>Planilha1!$B$8:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -2062,9 +2304,21 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -2072,10 +2326,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Planilha1!$C$8:$C$14</c:f>
+              <c:f>Planilha1!$C$8:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>34</c:v>
                 </c:pt>
@@ -2089,12 +2343,24 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
@@ -4638,13 +4904,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524001</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>39460</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4674,13 +4940,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1653266</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1836963</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4710,13 +4976,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1514475</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4746,13 +5012,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1662111</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4782,8 +5048,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43521228-6CF2-41C1-9416-5AC6D3A3CE7D}" name="Tabela1" displayName="Tabela1" ref="A7:K14" totalsRowShown="0">
-  <autoFilter ref="A7:K14" xr:uid="{43521228-6CF2-41C1-9416-5AC6D3A3CE7D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43521228-6CF2-41C1-9416-5AC6D3A3CE7D}" name="Tabela1" displayName="Tabela1" ref="A7:K18" totalsRowShown="0">
+  <autoFilter ref="A7:K18" xr:uid="{43521228-6CF2-41C1-9416-5AC6D3A3CE7D}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6C12B8F2-5211-47BF-8F68-5C61BC2B00FA}" name="Array of Sensors"/>
     <tableColumn id="2" xr3:uid="{29A34731-97BD-4AF9-B417-66CD991C3B25}" name="Number of Photodiodes"/>
@@ -4807,6 +5073,34 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE413895-B50A-4A37-989D-B789678C2D27}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{C9533F0A-EA74-4183-8D26-78D18768E8CA}" name="Model"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42D38D58-0AB2-4C11-AE90-74BF512663FD}" name="Tabela24" displayName="Tabela24" ref="A70:E76" totalsRowShown="0">
+  <autoFilter ref="A70:E76" xr:uid="{42D38D58-0AB2-4C11-AE90-74BF512663FD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D9CFF9B5-0F94-4621-BAA3-6238D873347D}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{79EB7420-0CB7-4813-B0F0-A7EBAAA2B9A6}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{08220F2D-E2FD-46AD-8B49-08C49ED8953D}" name="Activation"/>
+    <tableColumn id="4" xr3:uid="{2AA66DEF-CF3F-4787-87C6-482D8EDCA896}" name="Regularizer.l2"/>
+    <tableColumn id="5" xr3:uid="{0681D726-9C23-4579-AFDE-545B9F089559}" name="Activation3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9564993-5891-44C2-97D5-8A5ACAE7724E}" name="Tabela245" displayName="Tabela245" ref="A88:E94" totalsRowShown="0">
+  <autoFilter ref="A88:E94" xr:uid="{B9564993-5891-44C2-97D5-8A5ACAE7724E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{37A3F747-6F4F-41A6-A0E6-ACA2674EE0E1}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{1FB933C0-CEDA-4B74-9717-92750D153AB4}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{90036A6C-7E22-48B2-A78F-31BF03E67EF3}" name="Activation"/>
+    <tableColumn id="4" xr3:uid="{F12C231E-3943-4702-B212-3FF2FED7BB89}" name="Regularizer.l2"/>
+    <tableColumn id="5" xr3:uid="{20B8223F-EC0B-4186-9917-37510880E79D}" name="Activation3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5109,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DA4030-4F17-4062-BE20-D2F1E6351BD8}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5380,112 +5674,856 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>5.0799999999999998E-2</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="E12">
-        <v>0.2339</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="F12">
-        <v>0.2064</v>
+        <v>0.2097</v>
       </c>
       <c r="G12">
-        <v>0.2339</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H12">
-        <v>0.19020000000000001</v>
+        <v>0.18579999999999999</v>
       </c>
       <c r="I12">
-        <v>0.50749999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>33</v>
       </c>
       <c r="D13">
-        <v>5.1200000000000002E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="E13">
-        <v>0.2354</v>
+        <v>0.2339</v>
       </c>
       <c r="F13">
-        <v>0.2319</v>
+        <v>0.2064</v>
       </c>
       <c r="G13">
-        <v>0.2354</v>
+        <v>0.2339</v>
       </c>
       <c r="H13">
-        <v>0.1928</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="I13">
-        <v>0.5494</v>
+        <v>0.50749999999999995</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.2354</v>
+      </c>
+      <c r="F14">
+        <v>0.2319</v>
+      </c>
+      <c r="G14">
+        <v>0.2354</v>
+      </c>
+      <c r="H14">
+        <v>0.1928</v>
+      </c>
+      <c r="I14">
+        <v>0.5494</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C14">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>7.17E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.26319999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.25380000000000003</v>
-      </c>
-      <c r="G14">
-        <v>0.26319999999999999</v>
-      </c>
-      <c r="H14">
-        <v>0.2122</v>
-      </c>
-      <c r="I14">
-        <v>0.63190000000000002</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.2472</v>
+      </c>
+      <c r="H16">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.216</v>
+      </c>
+      <c r="I17">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>7.17E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.2122</v>
+      </c>
+      <c r="I18">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>1024</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72">
+        <v>0.01</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>1024</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73">
+        <v>0.01</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>400</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74">
+        <v>0.01</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="18">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75">
+        <v>400</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>0.01</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="12">
+        <v>25</v>
+      </c>
+      <c r="C79" s="12">
+        <v>567</v>
+      </c>
+      <c r="D79" s="12">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.2203</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="13">
+        <v>16</v>
+      </c>
+      <c r="C80" s="13">
+        <v>52</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="F80" s="13">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="G80" s="13">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="H80" s="13">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="I80" s="13">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>392</v>
+      </c>
+      <c r="D81">
+        <v>5.04E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.1203</v>
+      </c>
+      <c r="F81">
+        <v>0.1225</v>
+      </c>
+      <c r="G81">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="H81">
+        <v>0.1004</v>
+      </c>
+      <c r="I81">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>382</v>
+      </c>
+      <c r="D83">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="F83">
+        <v>0.1641</v>
+      </c>
+      <c r="G83">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="H83">
+        <v>0.1065</v>
+      </c>
+      <c r="I83">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="J83" t="s">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="4">
+        <v>100</v>
+      </c>
+      <c r="J89" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90">
+        <v>1024</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90">
+        <v>0.01</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H90" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91">
+        <v>1024</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91">
+        <v>0.01</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92">
+        <v>400</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92">
+        <v>0.01</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H92" s="18">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93">
+        <v>400</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93">
+        <v>0.01</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H94" s="19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="12">
+        <v>30</v>
+      </c>
+      <c r="C97" s="12">
+        <v>1663</v>
+      </c>
+      <c r="D97" s="12">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.1125</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0.1211</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0.10374</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0.1062</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0.37880999999999998</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="13">
+        <v>16</v>
+      </c>
+      <c r="C98" s="13">
+        <v>52</v>
+      </c>
+      <c r="D98" s="13">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E98" s="13">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="F98" s="13">
+        <v>0.29649999999999999</v>
+      </c>
+      <c r="G98" s="13">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="H98" s="13">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="I98" s="13">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J98" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0.38779999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0.38829999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="B109" s="21"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0.94530000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5496,20 +6534,37 @@
     <hyperlink ref="K10" r:id="rId4" xr:uid="{A518B17A-7DEA-4410-B51A-313D0F8EE8EB}"/>
     <hyperlink ref="J11" r:id="rId5" xr:uid="{C78CBC95-DE96-4FDF-A6EA-28F9C7D5C0AD}"/>
     <hyperlink ref="K11" r:id="rId6" xr:uid="{2CDB550D-8268-41D2-B203-F51D176F0B43}"/>
-    <hyperlink ref="J12" r:id="rId7" xr:uid="{7BF0DB02-E60D-4433-AAB3-1168C119D478}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{506217AD-51D4-4BA4-9284-E635B5C3A937}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{93BB9578-B98B-4532-8154-C8D53C7268BD}"/>
-    <hyperlink ref="K13" r:id="rId10" xr:uid="{B1D163CE-8AF4-407C-AD65-28CABC8AF2C0}"/>
+    <hyperlink ref="J13" r:id="rId7" xr:uid="{7BF0DB02-E60D-4433-AAB3-1168C119D478}"/>
+    <hyperlink ref="K13" r:id="rId8" xr:uid="{506217AD-51D4-4BA4-9284-E635B5C3A937}"/>
+    <hyperlink ref="J14" r:id="rId9" xr:uid="{93BB9578-B98B-4532-8154-C8D53C7268BD}"/>
+    <hyperlink ref="K14" r:id="rId10" xr:uid="{B1D163CE-8AF4-407C-AD65-28CABC8AF2C0}"/>
     <hyperlink ref="E1" r:id="rId11" xr:uid="{103EF593-6FD6-4DC5-B607-4E2CF8D52917}"/>
-    <hyperlink ref="K14" r:id="rId12" xr:uid="{7B323CF1-9B2B-4E35-9344-1062981933D3}"/>
-    <hyperlink ref="J14" r:id="rId13" xr:uid="{0A96D5EA-10DF-431D-9FC6-20BB0BDCEBF1}"/>
+    <hyperlink ref="K18" r:id="rId12" xr:uid="{7B323CF1-9B2B-4E35-9344-1062981933D3}"/>
+    <hyperlink ref="J18" r:id="rId13" xr:uid="{0A96D5EA-10DF-431D-9FC6-20BB0BDCEBF1}"/>
+    <hyperlink ref="J16" r:id="rId14" xr:uid="{98941481-AF7A-4B7A-98B8-06098213ABFC}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{962F89B5-80BD-496E-995D-B7FD7BF8C533}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{1ED4E1E1-A497-440D-AF3F-04FD65B48899}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{449F80E7-A8C1-42AC-8B14-1406C71840CE}"/>
+    <hyperlink ref="J80" r:id="rId18" xr:uid="{63143773-EBCC-4708-9512-85702F7AD862}"/>
+    <hyperlink ref="K80" r:id="rId19" xr:uid="{C6B98A48-3005-4DD8-9C0E-D1004BC7AAAB}"/>
+    <hyperlink ref="J79" r:id="rId20" xr:uid="{EF407697-A54A-4580-83E3-8CC0C2C0CA65}"/>
+    <hyperlink ref="K79" r:id="rId21" xr:uid="{1AA323C2-5B19-48E5-AB15-675D39DC4EEC}"/>
+    <hyperlink ref="H70" r:id="rId22" xr:uid="{67F50E21-4AEC-4344-BB2C-117DBCFD7153}"/>
+    <hyperlink ref="H88" r:id="rId23" xr:uid="{A917DD33-1A58-48AD-8BB0-FAA28363035B}"/>
+    <hyperlink ref="J98" r:id="rId24" xr:uid="{D29BEAC8-7DB3-4E3A-B1F7-43FAE7035771}"/>
+    <hyperlink ref="K98" r:id="rId25" xr:uid="{64E07F91-F474-43AC-8D25-BA62DEA68794}"/>
+    <hyperlink ref="J97" r:id="rId26" xr:uid="{7EDF6381-0603-41BF-93D2-F0648CE3485A}"/>
+    <hyperlink ref="J81" r:id="rId27" xr:uid="{6547F8A7-DDC4-46EE-96F5-3166D552B920}"/>
+    <hyperlink ref="K81" r:id="rId28" xr:uid="{A39232FA-BECC-4C45-A139-F4441A509DD0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
-  <tableParts count="2">
-    <tablePart r:id="rId16"/>
-    <tablePart r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <tableParts count="4">
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>